--- a/docs/jig/cargotracker/business-rule.xlsx
+++ b/docs/jig/cargotracker/business-rule.xlsx
@@ -159,7 +159,8 @@
     <t>BookingAmount</t>
   </si>
   <si>
-    <t>Domain model representation of the Booking Amount for a new Cargo.</t>
+    <t xml:space="preserve">Domain model representation of the Booking Amount for a new Cargo.+</t>
   </si>
   <si>
     <t>数値</t>
@@ -171,7 +172,8 @@
     <t>CargoHandlingActivity</t>
   </si>
   <si>
-    <t>A handling activity represents how and where a cargo can be handled, and can</t>
+    <t xml:space="preserve">A handling activity represents how and where a cargo can be handled, and can+</t>
   </si>
   <si>
     <t>◯</t>
@@ -258,7 +260,8 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Handling event type. Either requires or prohibits a carrier movement</t>
+    <t xml:space="preserve">Handling event type. Either requires or prohibits a carrier movement+</t>
   </si>
   <si>
     <t>VoyageNumber</t>
@@ -654,9 +657,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.2265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.66796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="4.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -838,16 +841,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.55078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="64.95703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.71484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="7.75390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="19.87890625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="99.19921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.66796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.98828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="66.70703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="7.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="7.66796875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.9296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="103.62109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2080,16 +2083,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="53.39453125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="54.1796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="20.7578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="50.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.55078125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.390625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="4.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.66796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.7421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="55.9765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="58.16796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.0859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="52.98046875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="8.9296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="6.9296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="2.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2234,14 +2237,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.8984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.359375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.32421875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="61.79296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="193.25" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.66796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.7734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.00390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.9609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="64.48828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="202.32421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2388,13 +2391,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.6953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.04296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.38671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="15.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.95703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.09375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.19921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="9.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2526,18 +2529,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.55078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="45.40625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.1328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="64.95703125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="21.4609375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="22.24609375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="15.921875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="15.1328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.6328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.66796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.98828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="47.94140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.03515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="66.70703125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.9296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.12890625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="12.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="9.9296875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="10.3515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/jig/cargotracker/business-rule.xlsx
+++ b/docs/jig/cargotracker/business-rule.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="215">
   <si>
     <t/>
   </si>
@@ -42,15 +42,27 @@
     <t>com.practicalddd.cargotracker.booking.domain.model.aggregates</t>
   </si>
   <si>
+    <t>集約</t>
+  </si>
+  <si>
     <t>com.practicalddd.cargotracker.booking.domain.model.commands</t>
   </si>
   <si>
+    <t>コマンド</t>
+  </si>
+  <si>
     <t>com.practicalddd.cargotracker.booking.domain.model.entities</t>
   </si>
   <si>
+    <t>エンティティ</t>
+  </si>
+  <si>
     <t>com.practicalddd.cargotracker.booking.domain.model.valueobjects</t>
   </si>
   <si>
+    <t>値オブジェクト</t>
+  </si>
+  <si>
     <t>com.practicalddd.cargotracker.handling.domain.model.aggregates</t>
   </si>
   <si>
@@ -111,7 +123,8 @@
     <t>BookingId</t>
   </si>
   <si>
-    <t>Aggregate Identifier for the Cargo Aggregate</t>
+    <t xml:space="preserve">予約ID+</t>
   </si>
   <si>
     <t>文字列</t>
@@ -123,6 +136,9 @@
     <t>Cargo</t>
   </si>
   <si>
+    <t>貨物</t>
+  </si>
+  <si>
     <t>不明</t>
   </si>
   <si>
@@ -132,7 +148,7 @@
     <t>BookCargoCommand</t>
   </si>
   <si>
-    <t>Book Cargo Command class</t>
+    <t>貨物予約</t>
   </si>
   <si>
     <t>[BookCargoCommandDTOAssembler, Cargo, CargoBookingCommandService, CargoBookingController]</t>
@@ -141,7 +157,7 @@
     <t>RouteCargoCommand</t>
   </si>
   <si>
-    <t>Command Class to assign a route to a booked cargo</t>
+    <t>貨物経路</t>
   </si>
   <si>
     <t>[CargoBookingCommandService, CargoRoutingController, RouteCargoCommandDTOAssembler]</t>
@@ -150,7 +166,8 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Location class represented by a unique 5-diigit UN Location code.</t>
+    <t xml:space="preserve">位置+</t>
   </si>
   <si>
     <t>[Cargo, CargoHandlingActivity, Delivery, ExternalCargoRoutingService, Leg, RouteSpecification]</t>
@@ -159,7 +176,7 @@
     <t>BookingAmount</t>
   </si>
   <si>
-    <t xml:space="preserve">Domain model representation of the Booking Amount for a new Cargo.+    <t xml:space="preserve">予約数量 </t>
   </si>
   <si>
@@ -172,7 +189,7 @@
     <t>CargoHandlingActivity</t>
   </si>
   <si>
-    <t xml:space="preserve">A handling activity represents how and where a cargo can be handled, and can+    <t xml:space="preserve">荷役 </t>
   </si>
   <si>
@@ -185,6 +202,9 @@
     <t>CargoItinerary</t>
   </si>
   <si>
+    <t>貨物旅程</t>
+  </si>
+  <si>
     <t>コレクション</t>
   </si>
   <si>
@@ -194,34 +214,53 @@
     <t>Delivery</t>
   </si>
   <si>
+    <t xml:space="preserve">配送+</t>
+  </si>
+  <si>
     <t>LastCargoHandledEvent</t>
   </si>
   <si>
+    <t>最終荷役イベント</t>
+  </si>
+  <si>
     <t>[Cargo, Delivery]</t>
   </si>
   <si>
     <t>Leg</t>
   </si>
   <si>
+    <t>旅程</t>
+  </si>
+  <si>
     <t>[CargoItinerary, ExternalCargoRoutingService]</t>
   </si>
   <si>
     <t>RouteSpecification</t>
   </si>
   <si>
+    <t>貨物のルート仕様</t>
+  </si>
+  <si>
     <t>RoutingStatus</t>
   </si>
   <si>
+    <t>経路ステータス</t>
+  </si>
+  <si>
     <t>区分</t>
   </si>
   <si>
     <t>TransportStatus</t>
   </si>
   <si>
+    <t>輸送ステータス</t>
+  </si>
+  <si>
     <t>Voyage</t>
   </si>
   <si>
-    <t xml:space="preserve"> Class representing the Cargo Voyage</t>
+    <t>航海</t>
   </si>
   <si>
     <t>[CargoHandlingActivity, Delivery, ExternalCargoRoutingService, Leg]</t>
@@ -230,16 +269,13 @@
     <t>HandlingActivity</t>
   </si>
   <si>
-    <t>Root Aggregate for the Handling Bounded Context</t>
-  </si>
-  <si>
     <t>[HandlingActivityHistory, HandlingActivityRegistrationCommandService, HandlingActivityRepository]</t>
   </si>
   <si>
     <t>HandlingActivityRegistrationCommand</t>
   </si>
   <si>
-    <t>Command to Register an Handling Activity</t>
+    <t>荷役登録</t>
   </si>
   <si>
     <t>[CargoHandlingController, HandlingActivityRegistrationCommandDTOAssembler, HandlingActivityRegistrationCommandService]</t>
@@ -248,31 +284,45 @@
     <t>CargoBookingId</t>
   </si>
   <si>
+    <t>貨物予約ID</t>
+  </si>
+  <si>
     <t>[HandlingActivity, HandlingActivityRegistrationCommandService]</t>
   </si>
   <si>
     <t>HandlingActivityHistory</t>
   </si>
   <si>
+    <t>荷役履歴</t>
+  </si>
+  <si>
     <t>[HandlingActivityRepository, HandlingHistoryService]</t>
   </si>
   <si>
+    <t>位置</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Handling event type. Either requires or prohibits a carrier movement-</t>
+    <t>荷役タイプ</t>
   </si>
   <si>
     <t>VoyageNumber</t>
   </si>
   <si>
+    <t>航海番号</t>
+  </si>
+  <si>
     <t>[CargoRoutingController, CargoRoutingQueryService, VoyageRepository]</t>
   </si>
   <si>
     <t>CarrierMovement</t>
   </si>
   <si>
+    <t>移動機器</t>
+  </si>
+  <si>
     <t>[CargoRoutingController, Schedule]</t>
   </si>
   <si>
@@ -282,7 +332,7 @@
     <t>Schedule</t>
   </si>
   <si>
-    <t>A Voyage schedule</t>
+    <t>航海予定</t>
   </si>
   <si>
     <t>[CargoRoutingController, Voyage]</t>
@@ -291,19 +341,25 @@
     <t>TrackingActivity</t>
   </si>
   <si>
+    <t>追跡</t>
+  </si>
+  <si>
     <t>[AssignTrackingIdCommandService, TrackingRepository]</t>
   </si>
   <si>
     <t>TrackingNumber</t>
   </si>
   <si>
+    <t>追跡番号</t>
+  </si>
+  <si>
     <t>[AssignTrackingIdCommandService, CargoRoutedEventHandler, TrackingActivity, TrackingRepository]</t>
   </si>
   <si>
     <t>AddTrackingEventCommand</t>
   </si>
   <si>
-    <t>Add Tracking Event Command</t>
+    <t>追跡追加</t>
   </si>
   <si>
     <t>[AssignTrackingIdCommandService, CargoHandledEventHandler, TrackingActivity, TrackingActivityCommandEventAssembler]</t>
@@ -312,7 +368,7 @@
     <t>AssignTrackingNumberCommand</t>
   </si>
   <si>
-    <t>Assign Tracking Number Command class</t>
+    <t>追跡番号割り当て</t>
   </si>
   <si>
     <t>[AssignTrackingIdCommandService, CargoRoutedEventHandler, TrackingActivity, TrackingDetailsCommandEventAssembler]</t>
@@ -321,19 +377,25 @@
     <t>TrackingActivityEvent</t>
   </si>
   <si>
+    <t>追跡イベント</t>
+  </si>
+  <si>
     <t>[TrackingActivity]</t>
   </si>
   <si>
     <t>TrackingBookingId</t>
   </si>
   <si>
+    <t>予約追跡ID</t>
+  </si>
+  <si>
     <t>[AssignTrackingIdCommandService, TrackingActivity, TrackingRepository]</t>
   </si>
   <si>
     <t>TrackingEvent</t>
   </si>
   <si>
-    <t>Tracking Event Details</t>
+    <t>追跡イベント詳細</t>
   </si>
   <si>
     <t>[TrackingActivity, TrackingActivityEvent]</t>
@@ -342,16 +404,22 @@
     <t>TrackingEventType</t>
   </si>
   <si>
+    <t>追跡イベントタイプ</t>
+  </si>
+  <si>
     <t>[TrackingActivity, TrackingEvent]</t>
   </si>
   <si>
     <t>TrackingLocation</t>
   </si>
   <si>
-    <t>TrackingLocation class represented by a unique 5-diigit UN TrackingLocation code.</t>
+    <t>追跡位置</t>
   </si>
   <si>
     <t>TrackingVoyageNumber</t>
+  </si>
+  <si>
+    <t>追跡航海番号</t>
   </si>
   <si>
     <t>定数宣言</t>
@@ -678,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>2.0</v>
@@ -686,10 +754,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>2.0</v>
@@ -697,10 +765,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>1.0</v>
@@ -708,10 +776,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>10.0</v>
@@ -719,10 +787,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>1.0</v>
@@ -730,10 +798,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>1.0</v>
@@ -741,10 +809,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>5.0</v>
@@ -752,10 +820,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n" s="0">
         <v>1.0</v>
@@ -763,10 +831,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>1.0</v>
@@ -774,10 +842,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n" s="0">
         <v>3.0</v>
@@ -785,10 +853,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n" s="0">
         <v>2.0</v>
@@ -796,10 +864,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n" s="0">
         <v>2.0</v>
@@ -807,10 +875,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n" s="0">
         <v>2.0</v>
@@ -818,10 +886,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n" s="0">
         <v>4.0</v>
@@ -843,7 +911,7 @@
   <cols>
     <col min="1" max="1" width="55.66796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="31.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="66.70703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.9296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.9296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.9296875" customWidth="true" bestFit="true"/>
@@ -858,31 +926,31 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -890,13 +958,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>1.0</v>
@@ -914,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -922,13 +990,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>0.0</v>
@@ -946,21 +1014,21 @@
         <v>0</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>1.0</v>
@@ -978,21 +1046,21 @@
         <v>0</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>0.0</v>
@@ -1010,21 +1078,21 @@
         <v>0</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>5.0</v>
@@ -1042,21 +1110,21 @@
         <v>0</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>1.0</v>
@@ -1074,21 +1142,21 @@
         <v>0</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>1.0</v>
@@ -1103,24 +1171,24 @@
         <v>0</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E9" t="n" s="0">
         <v>2.0</v>
@@ -1138,21 +1206,21 @@
         <v>0</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>1.0</v>
@@ -1170,21 +1238,21 @@
         <v>0</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E11" t="n" s="0">
         <v>2.0</v>
@@ -1202,21 +1270,21 @@
         <v>0</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n" s="0">
         <v>1.0</v>
@@ -1234,21 +1302,21 @@
         <v>0</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n" s="0">
         <v>2.0</v>
@@ -1266,21 +1334,21 @@
         <v>0</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E14" t="n" s="0">
         <v>1.0</v>
@@ -1295,24 +1363,24 @@
         <v>0</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E15" t="n" s="0">
         <v>1.0</v>
@@ -1327,24 +1395,24 @@
         <v>0</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E16" t="n" s="0">
         <v>3.0</v>
@@ -1362,21 +1430,21 @@
         <v>0</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E17" t="n" s="0">
         <v>1.0</v>
@@ -1394,21 +1462,21 @@
         <v>0</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E18" t="n" s="0">
         <v>0.0</v>
@@ -1426,21 +1494,21 @@
         <v>0</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E19" t="n" s="0">
         <v>1.0</v>
@@ -1458,21 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J19" t="s" s="0">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E20" t="n" s="0">
         <v>0.0</v>
@@ -1490,21 +1558,21 @@
         <v>0</v>
       </c>
       <c r="J20" t="s" s="0">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E21" t="n" s="0">
         <v>1.0</v>
@@ -1522,21 +1590,21 @@
         <v>0</v>
       </c>
       <c r="J21" t="s" s="0">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E22" t="n" s="0">
         <v>1.0</v>
@@ -1554,21 +1622,21 @@
         <v>0</v>
       </c>
       <c r="J22" t="s" s="0">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E23" t="n" s="0">
         <v>1.0</v>
@@ -1586,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="J23" t="s" s="0">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E24" t="n" s="0">
         <v>0.0</v>
@@ -1618,21 +1686,21 @@
         <v>0</v>
       </c>
       <c r="J24" t="s" s="0">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E25" t="n" s="0">
         <v>1.0</v>
@@ -1650,21 +1718,21 @@
         <v>0</v>
       </c>
       <c r="J25" t="s" s="0">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E26" t="n" s="0">
         <v>1.0</v>
@@ -1682,21 +1750,21 @@
         <v>0</v>
       </c>
       <c r="J26" t="s" s="0">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E27" t="n" s="0">
         <v>1.0</v>
@@ -1714,21 +1782,21 @@
         <v>0</v>
       </c>
       <c r="J27" t="s" s="0">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E28" t="n" s="0">
         <v>1.0</v>
@@ -1746,21 +1814,21 @@
         <v>0</v>
       </c>
       <c r="J28" t="s" s="0">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E29" t="n" s="0">
         <v>0.0</v>
@@ -1778,21 +1846,21 @@
         <v>0</v>
       </c>
       <c r="J29" t="s" s="0">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E30" t="n" s="0">
         <v>1.0</v>
@@ -1810,21 +1878,21 @@
         <v>0</v>
       </c>
       <c r="J30" t="s" s="0">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E31" t="n" s="0">
         <v>1.0</v>
@@ -1842,21 +1910,21 @@
         <v>0</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E32" t="n" s="0">
         <v>1.0</v>
@@ -1874,21 +1942,21 @@
         <v>0</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E33" t="n" s="0">
         <v>1.0</v>
@@ -1906,21 +1974,21 @@
         <v>0</v>
       </c>
       <c r="J33" t="s" s="0">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E34" t="n" s="0">
         <v>1.0</v>
@@ -1938,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="J34" t="s" s="0">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E35" t="n" s="0">
         <v>2.0</v>
@@ -1970,21 +2038,21 @@
         <v>0</v>
       </c>
       <c r="J35" t="s" s="0">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E36" t="n" s="0">
         <v>2.0</v>
@@ -2002,21 +2070,21 @@
         <v>0</v>
       </c>
       <c r="J36" t="s" s="0">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E37" t="n" s="0">
         <v>2.0</v>
@@ -2034,21 +2102,21 @@
         <v>0</v>
       </c>
       <c r="J37" t="s" s="0">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E38" t="n" s="0">
         <v>2.0</v>
@@ -2066,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s" s="0">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2085,7 +2153,7 @@
   <cols>
     <col min="1" max="1" width="55.66796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.7421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="55.9765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.9296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="58.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.0859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.9296875" customWidth="true" bestFit="true"/>
@@ -2100,54 +2168,54 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>114</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>0</v>
@@ -2161,25 +2229,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>0</v>
@@ -2193,31 +2261,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>0</v>
@@ -2239,7 +2307,7 @@
   <cols>
     <col min="1" max="1" width="55.66796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.7734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.00390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.9296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="19.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="64.48828125" customWidth="true" bestFit="true"/>
@@ -2252,129 +2320,129 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>122</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>6.0</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="G4" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>128</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="G5" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2393,7 +2461,7 @@
   <cols>
     <col min="1" max="1" width="55.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.95703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.9296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.09375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="8.19921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.9296875" customWidth="true" bestFit="true"/>
@@ -2405,114 +2473,114 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>134</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2533,7 +2601,7 @@
     <col min="2" max="2" width="31.98828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="47.94140625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="14.03515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="66.70703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.9296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.9296875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="13.9296875" customWidth="true" bestFit="true"/>
@@ -2548,37 +2616,37 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="K1" t="s" s="0">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="L1" t="s" s="0">
-        <v>149</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
@@ -2586,16 +2654,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>1.0</v>
@@ -2616,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -2624,16 +2692,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>0.0</v>
@@ -2654,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -2662,16 +2730,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>0.0</v>
@@ -2692,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -2700,16 +2768,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n" s="0">
         <v>0.0</v>
@@ -2730,24 +2798,24 @@
         <v>0</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n" s="0">
         <v>1.0</v>
@@ -2756,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>0</v>
@@ -2773,19 +2841,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F7" t="n" s="0">
         <v>0.0</v>
@@ -2794,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s" s="0">
         <v>0</v>
@@ -2806,24 +2874,24 @@
         <v>0</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n" s="0">
         <v>1.0</v>
@@ -2844,24 +2912,24 @@
         <v>0</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F9" t="n" s="0">
         <v>0.0</v>
@@ -2882,24 +2950,24 @@
         <v>0</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n" s="0">
         <v>0.0</v>
@@ -2920,24 +2988,24 @@
         <v>0</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n" s="0">
         <v>0.0</v>
@@ -2958,24 +3026,24 @@
         <v>0</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F12" t="n" s="0">
         <v>1.0</v>
@@ -2996,24 +3064,24 @@
         <v>0</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F13" t="n" s="0">
         <v>0.0</v>
@@ -3034,24 +3102,24 @@
         <v>0</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F14" t="n" s="0">
         <v>0.0</v>
@@ -3072,24 +3140,24 @@
         <v>0</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F15" t="n" s="0">
         <v>1.0</v>
@@ -3101,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s" s="0">
         <v>0</v>
@@ -3115,19 +3183,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F16" t="n" s="0">
         <v>1.0</v>
@@ -3139,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K16" t="s" s="0">
         <v>0</v>
@@ -3153,19 +3221,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F17" t="n" s="0">
         <v>1.0</v>
@@ -3180,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K17" t="s" s="0">
         <v>0</v>
@@ -3191,19 +3259,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F18" t="n" s="0">
         <v>1.0</v>
@@ -3218,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K18" t="s" s="0">
         <v>0</v>
@@ -3229,19 +3297,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F19" t="n" s="0">
         <v>0.0</v>
@@ -3262,24 +3330,24 @@
         <v>0</v>
       </c>
       <c r="L19" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F20" t="n" s="0">
         <v>0.0</v>
@@ -3300,24 +3368,24 @@
         <v>0</v>
       </c>
       <c r="L20" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F21" t="n" s="0">
         <v>0.0</v>
@@ -3338,24 +3406,24 @@
         <v>0</v>
       </c>
       <c r="L21" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F22" t="n" s="0">
         <v>0.0</v>
@@ -3376,24 +3444,24 @@
         <v>0</v>
       </c>
       <c r="L22" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="D23" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="D23" t="s" s="0">
-        <v>151</v>
-      </c>
       <c r="E23" t="s" s="0">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F23" t="n" s="0">
         <v>0.0</v>
@@ -3414,24 +3482,24 @@
         <v>0</v>
       </c>
       <c r="L23" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F24" t="n" s="0">
         <v>0.0</v>
@@ -3452,24 +3520,24 @@
         <v>0</v>
       </c>
       <c r="L24" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F25" t="n" s="0">
         <v>0.0</v>
@@ -3490,24 +3558,24 @@
         <v>0</v>
       </c>
       <c r="L25" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F26" t="n" s="0">
         <v>1.0</v>
@@ -3528,24 +3596,24 @@
         <v>0</v>
       </c>
       <c r="L26" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F27" t="n" s="0">
         <v>1.0</v>
@@ -3566,24 +3634,24 @@
         <v>0</v>
       </c>
       <c r="L27" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F28" t="n" s="0">
         <v>1.0</v>
@@ -3604,24 +3672,24 @@
         <v>0</v>
       </c>
       <c r="L28" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F29" t="n" s="0">
         <v>1.0</v>
@@ -3642,24 +3710,24 @@
         <v>0</v>
       </c>
       <c r="L29" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F30" t="n" s="0">
         <v>1.0</v>
@@ -3680,24 +3748,24 @@
         <v>0</v>
       </c>
       <c r="L30" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F31" t="n" s="0">
         <v>0.0</v>
@@ -3718,24 +3786,24 @@
         <v>0</v>
       </c>
       <c r="L31" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="F32" t="n" s="0">
         <v>0.0</v>
@@ -3744,16 +3812,16 @@
         <v>0</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I32" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K32" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L32" t="s" s="0">
         <v>0</v>
@@ -3761,19 +3829,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="F33" t="n" s="0">
         <v>0.0</v>
@@ -3785,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s" s="0">
         <v>0</v>
@@ -3799,19 +3867,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="F34" t="n" s="0">
         <v>0.0</v>
@@ -3820,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I34" t="s" s="0">
         <v>0</v>
@@ -3837,19 +3905,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="F35" t="n" s="0">
         <v>1.0</v>
@@ -3858,16 +3926,16 @@
         <v>0</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I35" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J35" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K35" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L35" t="s" s="0">
         <v>0</v>
@@ -3875,19 +3943,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F36" t="n" s="0">
         <v>0.0</v>
@@ -3908,24 +3976,24 @@
         <v>0</v>
       </c>
       <c r="L36" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F37" t="n" s="0">
         <v>1.0</v>
@@ -3934,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I37" t="s" s="0">
         <v>0</v>
@@ -3943,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L37" t="s" s="0">
         <v>0</v>
@@ -3951,19 +4019,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F38" t="n" s="0">
         <v>2.0</v>
@@ -3972,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I38" t="s" s="0">
         <v>0</v>
@@ -3981,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L38" t="s" s="0">
         <v>0</v>
@@ -3989,19 +4057,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F39" t="n" s="0">
         <v>0.0</v>
@@ -4010,16 +4078,16 @@
         <v>0</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I39" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J39" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K39" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L39" t="s" s="0">
         <v>0</v>
@@ -4027,19 +4095,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F40" t="n" s="0">
         <v>0.0</v>
@@ -4060,24 +4128,24 @@
         <v>0</v>
       </c>
       <c r="L40" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F41" t="n" s="0">
         <v>0.0</v>
@@ -4098,24 +4166,24 @@
         <v>0</v>
       </c>
       <c r="L41" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F42" t="n" s="0">
         <v>0.0</v>
@@ -4136,24 +4204,24 @@
         <v>0</v>
       </c>
       <c r="L42" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F43" t="n" s="0">
         <v>1.0</v>
@@ -4174,24 +4242,24 @@
         <v>0</v>
       </c>
       <c r="L43" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F44" t="n" s="0">
         <v>0.0</v>
@@ -4212,24 +4280,24 @@
         <v>0</v>
       </c>
       <c r="L44" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F45" t="n" s="0">
         <v>0.0</v>
@@ -4250,24 +4318,24 @@
         <v>0</v>
       </c>
       <c r="L45" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F46" t="n" s="0">
         <v>0.0</v>
@@ -4288,24 +4356,24 @@
         <v>0</v>
       </c>
       <c r="L46" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F47" t="n" s="0">
         <v>0.0</v>
@@ -4326,24 +4394,24 @@
         <v>0</v>
       </c>
       <c r="L47" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F48" t="n" s="0">
         <v>0.0</v>
@@ -4364,24 +4432,24 @@
         <v>0</v>
       </c>
       <c r="L48" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F49" t="n" s="0">
         <v>0.0</v>
@@ -4402,24 +4470,24 @@
         <v>0</v>
       </c>
       <c r="L49" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F50" t="n" s="0">
         <v>1.0</v>
@@ -4440,24 +4508,24 @@
         <v>0</v>
       </c>
       <c r="L50" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="F51" t="n" s="0">
         <v>0.0</v>
@@ -4478,24 +4546,24 @@
         <v>0</v>
       </c>
       <c r="L51" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="F52" t="n" s="0">
         <v>0.0</v>
@@ -4516,24 +4584,24 @@
         <v>0</v>
       </c>
       <c r="L52" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F53" t="n" s="0">
         <v>0.0</v>
@@ -4554,24 +4622,24 @@
         <v>0</v>
       </c>
       <c r="L53" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="F54" t="n" s="0">
         <v>0.0</v>
@@ -4592,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
